--- a/2des/03-bcd/aula08/solucao/vps01.xlsx
+++ b/2des/03-bcd/aula08/solucao/vps01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\senai2023\2des\03-bcd\aula08\solucao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76790A82-54E2-4364-AB66-5577169D8517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61684A1-B48E-4807-A8AC-856AB64CD16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{282E018F-2710-45AA-8835-F9AF56A7B63E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{282E018F-2710-45AA-8835-F9AF56A7B63E}"/>
   </bookViews>
   <sheets>
     <sheet name="dados_brutos" sheetId="1" r:id="rId1"/>
@@ -10744,8 +10744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84732B60-1E1D-4F83-91E5-5B29C4777B9B}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11492,13 +11492,13 @@
   <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -11952,7 +11952,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="E1" sqref="E1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12420,7 +12420,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12748,7 +12748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{795ED09C-7504-4204-8A6D-EDEDDA5585C5}">
   <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
